--- a/biology/Zoologie/Élénie/Élénie.xlsx
+++ b/biology/Zoologie/Élénie/Élénie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie</t>
+          <t>Élénie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'appellation élénie (ou, moins fréquemment, élaène[1]) désigne vingt-neuf espèces d'oiseaux de la famille des Tyrannidae qui forment les genres Elaenia, Myiopagis et Pseudelaenia.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation élénie (ou, moins fréquemment, élaène) désigne vingt-neuf espèces d'oiseaux de la famille des Tyrannidae qui forment les genres Elaenia, Myiopagis et Pseudelaenia.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie</t>
+          <t>Élénie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Espèces concernées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 9.2, 2019) du Congrès ornithologique international (ordre phylogénique) :
 Myiopagis gaimardii (d'Orbigny, 1840) – Élénie de Gaimard
@@ -542,8 +556,8 @@
 Elaenia dayi Chapman, 1929 – Élénie de Day
 Elaenia pallatangae P. L. Sclater, 1862 – Élénie de Pallatanga
 Elaenia olivina Salvin &amp; Godman, 1884 – Élénie du Roraima
-Elaenia fallax P. L. Sclater, 1861 – Élénie sara[1],[2]
-Pseudelaenia leucospodia (Taczanowski, 1877) – Élénie gris et blanc[3]</t>
+Elaenia fallax P. L. Sclater, 1861 – Élénie sara,
+Pseudelaenia leucospodia (Taczanowski, 1877) – Élénie gris et blanc</t>
         </is>
       </c>
     </row>
